--- a/training/output/Resnet34_ViT/W/W2_W3.xlsx
+++ b/training/output/Resnet34_ViT/W/W2_W3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,802 +447,1602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5066666666666666</v>
+        <v>0.459375</v>
       </c>
       <c r="B2" t="n">
-        <v>3.169747343063355</v>
+        <v>2.622221529483795</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.7533333333333333</v>
+        <v>0.8022916666666666</v>
       </c>
       <c r="B3" t="n">
-        <v>2.513069534301758</v>
+        <v>1.980037808418274</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.8641666666666667</v>
+        <v>0.91125</v>
       </c>
       <c r="B4" t="n">
-        <v>2.269909915924072</v>
+        <v>1.70519557595253</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8908333333333333</v>
+        <v>0.9339583333333333</v>
       </c>
       <c r="B5" t="n">
-        <v>2.048129153251648</v>
+        <v>1.537570029497147</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9539583333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>1.907796468734741</v>
+        <v>1.368270128965378</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9458333333333333</v>
+        <v>0.9564583333333333</v>
       </c>
       <c r="B7" t="n">
-        <v>1.758675966262817</v>
+        <v>1.332849532365799</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9375</v>
+        <v>0.9664583333333333</v>
       </c>
       <c r="B8" t="n">
-        <v>1.725655164718628</v>
+        <v>1.219421446323395</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9675</v>
+        <v>0.9714583333333334</v>
       </c>
       <c r="B9" t="n">
-        <v>1.704103884696961</v>
+        <v>1.170572578907013</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.97</v>
+        <v>0.9691666666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>1.615509543418884</v>
+        <v>1.149296134710312</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.975</v>
+        <v>0.9716666666666666</v>
       </c>
       <c r="B11" t="n">
-        <v>1.589748630523682</v>
+        <v>1.087448358535767</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9725</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="B12" t="n">
-        <v>1.591859617233276</v>
+        <v>1.043251603841782</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.975</v>
+        <v>0.9664583333333333</v>
       </c>
       <c r="B13" t="n">
-        <v>1.529296298027039</v>
+        <v>1.065668880939484</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9775</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="B14" t="n">
-        <v>1.554227690696716</v>
+        <v>1.045450553297997</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9775</v>
+        <v>0.9741666666666666</v>
       </c>
       <c r="B15" t="n">
-        <v>1.519217519760132</v>
+        <v>1.005462020635605</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.975</v>
+        <v>0.9818750000000001</v>
       </c>
       <c r="B16" t="n">
-        <v>1.508765292167664</v>
+        <v>0.9738520979881287</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9825</v>
+        <v>0.9870833333333334</v>
       </c>
       <c r="B17" t="n">
-        <v>1.525829586982727</v>
+        <v>0.9519536048173904</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9675</v>
+        <v>0.974375</v>
       </c>
       <c r="B18" t="n">
-        <v>1.506889505386352</v>
+        <v>0.9310596585273743</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.98</v>
+        <v>0.979375</v>
       </c>
       <c r="B19" t="n">
-        <v>1.502980799674988</v>
+        <v>0.9311972260475159</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.975</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B20" t="n">
-        <v>1.483209218978882</v>
+        <v>0.9270361810922623</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9775</v>
+        <v>0.9818750000000001</v>
       </c>
       <c r="B21" t="n">
-        <v>1.475191707611084</v>
+        <v>0.929097592830658</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9675</v>
+        <v>0.9820833333333333</v>
       </c>
       <c r="B22" t="n">
-        <v>1.477445068359375</v>
+        <v>0.8996416181325912</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.975</v>
+        <v>0.9820833333333333</v>
       </c>
       <c r="B23" t="n">
-        <v>1.44476288318634</v>
+        <v>0.9118607193231583</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9825</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B24" t="n">
-        <v>1.454130654335022</v>
+        <v>0.8986378610134125</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.985</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B25" t="n">
-        <v>1.455208468437195</v>
+        <v>0.8845882713794708</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.985</v>
+        <v>0.9818750000000001</v>
       </c>
       <c r="B26" t="n">
-        <v>1.449868378639221</v>
+        <v>0.886006623506546</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9825</v>
+        <v>0.979375</v>
       </c>
       <c r="B27" t="n">
-        <v>1.450541367530823</v>
+        <v>0.8831414878368378</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9825</v>
+        <v>0.9870833333333334</v>
       </c>
       <c r="B28" t="n">
-        <v>1.44226158618927</v>
+        <v>0.8588258922100067</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9825</v>
+        <v>0.9870833333333334</v>
       </c>
       <c r="B29" t="n">
-        <v>1.43999363899231</v>
+        <v>0.8508822172880173</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9825</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>1.434274940490723</v>
+        <v>0.8527906388044357</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9825</v>
+        <v>0.9741666666666666</v>
       </c>
       <c r="B31" t="n">
-        <v>1.438037877082825</v>
+        <v>0.8692051321268082</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.975</v>
+        <v>0.9818750000000001</v>
       </c>
       <c r="B32" t="n">
-        <v>1.448543825149536</v>
+        <v>0.856178030371666</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9875</v>
+        <v>0.9870833333333334</v>
       </c>
       <c r="B33" t="n">
-        <v>1.436780571937561</v>
+        <v>0.8384761810302734</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9825</v>
+        <v>0.9818750000000001</v>
       </c>
       <c r="B34" t="n">
-        <v>1.424147262573242</v>
+        <v>0.8431901633739471</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.985</v>
+        <v>0.9818750000000001</v>
       </c>
       <c r="B35" t="n">
-        <v>1.426031761169434</v>
+        <v>0.8214346617460251</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.985</v>
+        <v>0.9818750000000001</v>
       </c>
       <c r="B36" t="n">
-        <v>1.422088403701782</v>
+        <v>0.8268464058637619</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.985</v>
+        <v>0.979375</v>
       </c>
       <c r="B37" t="n">
-        <v>1.421307640075684</v>
+        <v>0.8162418305873871</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9825</v>
+        <v>0.979375</v>
       </c>
       <c r="B38" t="n">
-        <v>1.416285886764526</v>
+        <v>0.8156113922595978</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.975</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B39" t="n">
-        <v>1.42512131690979</v>
+        <v>0.8267083168029785</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9825</v>
+        <v>0.979375</v>
       </c>
       <c r="B40" t="n">
-        <v>1.431033868789673</v>
+        <v>0.8764988332986832</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9825</v>
+        <v>0.979375</v>
       </c>
       <c r="B41" t="n">
-        <v>1.430549936294556</v>
+        <v>0.8206159472465515</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9825</v>
+        <v>0.979375</v>
       </c>
       <c r="B42" t="n">
-        <v>1.414940090179443</v>
+        <v>0.8121881484985352</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9825</v>
+        <v>0.979375</v>
       </c>
       <c r="B43" t="n">
-        <v>1.416469225883484</v>
+        <v>0.8040119409561157</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9825</v>
+        <v>0.9818750000000001</v>
       </c>
       <c r="B44" t="n">
-        <v>1.417268710136414</v>
+        <v>0.796737939119339</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.99</v>
+        <v>0.9818750000000001</v>
       </c>
       <c r="B45" t="n">
-        <v>1.415020451545715</v>
+        <v>0.7905060946941376</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.985</v>
+        <v>0.9818750000000001</v>
       </c>
       <c r="B46" t="n">
-        <v>1.416426091194153</v>
+        <v>0.8486063331365585</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.985</v>
+        <v>0.9818750000000001</v>
       </c>
       <c r="B47" t="n">
-        <v>1.41010018825531</v>
+        <v>0.8074669390916824</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9875</v>
+        <v>0.9818750000000001</v>
       </c>
       <c r="B48" t="n">
-        <v>1.430635323524475</v>
+        <v>0.7930791229009628</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.98</v>
+        <v>0.9818750000000001</v>
       </c>
       <c r="B49" t="n">
-        <v>1.428725266456604</v>
+        <v>0.7938377559185028</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.985</v>
+        <v>0.9818750000000001</v>
       </c>
       <c r="B50" t="n">
-        <v>1.424537553787231</v>
+        <v>0.78968545794487</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9775</v>
+        <v>0.9870833333333334</v>
       </c>
       <c r="B51" t="n">
-        <v>1.415707836151123</v>
+        <v>0.8078321218490601</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.985</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B52" t="n">
-        <v>1.420981540679932</v>
+        <v>0.8110782951116562</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.98</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B53" t="n">
-        <v>1.436949920654297</v>
+        <v>0.7793509215116501</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9725</v>
+        <v>0.9870833333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>1.41599778175354</v>
+        <v>0.7856099605560303</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9775</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B55" t="n">
-        <v>1.413789916038513</v>
+        <v>0.781279981136322</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.975</v>
+        <v>0.979375</v>
       </c>
       <c r="B56" t="n">
-        <v>1.431260471343994</v>
+        <v>0.7769918292760849</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.975</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B57" t="n">
-        <v>1.42136173248291</v>
+        <v>0.7777904272079468</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.985</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B58" t="n">
-        <v>1.419307832717895</v>
+        <v>0.7739944756031036</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.975</v>
+        <v>0.9870833333333334</v>
       </c>
       <c r="B59" t="n">
-        <v>1.411885595321655</v>
+        <v>0.7788764536380768</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9775</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B60" t="n">
-        <v>1.402524075508118</v>
+        <v>0.7676952034235001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9775</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B61" t="n">
-        <v>1.411953244209289</v>
+        <v>0.8124843388795853</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9775</v>
+        <v>0.979375</v>
       </c>
       <c r="B62" t="n">
-        <v>1.429396305084228</v>
+        <v>0.7744200676679611</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.975</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B63" t="n">
-        <v>1.420904231071472</v>
+        <v>0.7864202857017517</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9725</v>
+        <v>0.979375</v>
       </c>
       <c r="B64" t="n">
-        <v>1.406748566627502</v>
+        <v>0.785226970911026</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.975</v>
+        <v>0.979375</v>
       </c>
       <c r="B65" t="n">
-        <v>1.412221641540527</v>
+        <v>0.7721995562314987</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9825</v>
+        <v>0.979375</v>
       </c>
       <c r="B66" t="n">
-        <v>1.406475076675415</v>
+        <v>0.7754243165254593</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9775</v>
+        <v>0.979375</v>
       </c>
       <c r="B67" t="n">
-        <v>1.420909924507141</v>
+        <v>0.7735903710126877</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.965</v>
+        <v>0.979375</v>
       </c>
       <c r="B68" t="n">
-        <v>1.40978289604187</v>
+        <v>0.7727698981761932</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9675</v>
+        <v>0.979375</v>
       </c>
       <c r="B69" t="n">
-        <v>1.405700101852417</v>
+        <v>0.7752397805452347</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.975</v>
+        <v>0.979375</v>
       </c>
       <c r="B70" t="n">
-        <v>1.405167846679688</v>
+        <v>0.7678467631340027</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9725</v>
+        <v>0.9870833333333334</v>
       </c>
       <c r="B71" t="n">
-        <v>1.402840924263</v>
+        <v>0.7633186131715775</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.9775</v>
+        <v>0.9818750000000001</v>
       </c>
       <c r="B72" t="n">
-        <v>1.406086940765381</v>
+        <v>0.7709685117006302</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.98</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B73" t="n">
-        <v>1.409848103523254</v>
+        <v>0.7757088243961334</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.9825</v>
+        <v>0.9818750000000001</v>
       </c>
       <c r="B74" t="n">
-        <v>1.413913226127625</v>
+        <v>0.7824506908655167</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.9825</v>
+        <v>0.979375</v>
       </c>
       <c r="B75" t="n">
-        <v>1.406916728019714</v>
+        <v>0.7692191451787949</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9825</v>
+        <v>0.979375</v>
       </c>
       <c r="B76" t="n">
-        <v>1.400501894950867</v>
+        <v>0.7697503864765167</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9825</v>
+        <v>0.979375</v>
       </c>
       <c r="B77" t="n">
-        <v>1.408234553337097</v>
+        <v>0.757913738489151</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9825</v>
+        <v>0.979375</v>
       </c>
       <c r="B78" t="n">
-        <v>1.401776156425476</v>
+        <v>0.7736574113368988</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.9825</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B79" t="n">
-        <v>1.402191233634949</v>
+        <v>0.7540338635444641</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9825</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B80" t="n">
-        <v>1.400132031440735</v>
+        <v>0.7668147534132004</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9825</v>
+        <v>0.979375</v>
       </c>
       <c r="B81" t="n">
-        <v>1.399058423042297</v>
+        <v>0.7699863761663437</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9825</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B82" t="n">
-        <v>1.401999216079712</v>
+        <v>0.7547873854637146</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.9825</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B83" t="n">
-        <v>1.405785231590271</v>
+        <v>0.7545795887708664</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.9825</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B84" t="n">
-        <v>1.406058893203735</v>
+        <v>0.7498637139797211</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9825</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B85" t="n">
-        <v>1.400196175575256</v>
+        <v>0.757107138633728</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.985</v>
+        <v>0.9870833333333334</v>
       </c>
       <c r="B86" t="n">
-        <v>1.407624840736389</v>
+        <v>0.7514256089925766</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.985</v>
+        <v>0.979375</v>
       </c>
       <c r="B87" t="n">
-        <v>1.401585397720337</v>
+        <v>0.7679751217365265</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.985</v>
+        <v>0.979375</v>
       </c>
       <c r="B88" t="n">
-        <v>1.399543361663818</v>
+        <v>0.7536125034093857</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.985</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B89" t="n">
-        <v>1.401250138282776</v>
+        <v>0.7666837573051453</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9875</v>
+        <v>0.9768749999999999</v>
       </c>
       <c r="B90" t="n">
-        <v>1.397871417999268</v>
+        <v>0.7649528086185455</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9875</v>
+        <v>0.974375</v>
       </c>
       <c r="B91" t="n">
-        <v>1.401018033027649</v>
+        <v>0.7540315985679626</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9875</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B92" t="n">
-        <v>1.397584853172302</v>
+        <v>0.7551505267620087</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.985</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B93" t="n">
-        <v>1.400369639396668</v>
+        <v>0.7461240440607071</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.985</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B94" t="n">
-        <v>1.401064238548279</v>
+        <v>0.75491563975811</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9825</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B95" t="n">
-        <v>1.399293246269226</v>
+        <v>0.743278369307518</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9825</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B96" t="n">
-        <v>1.404004244804382</v>
+        <v>0.7458735108375549</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.97</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B97" t="n">
-        <v>1.404024639129639</v>
+        <v>0.7441829293966293</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9825</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B98" t="n">
-        <v>1.400608720779419</v>
+        <v>0.7537063360214233</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9775</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B99" t="n">
-        <v>1.400827255249024</v>
+        <v>0.748284712433815</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.98</v>
+        <v>0.9820833333333333</v>
       </c>
       <c r="B100" t="n">
-        <v>1.39799834728241</v>
+        <v>0.7548222094774246</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.985</v>
+        <v>0.9820833333333333</v>
       </c>
       <c r="B101" t="n">
-        <v>1.421509871482849</v>
+        <v>0.7415609210729599</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.7415982484817505</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.7435051053762436</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.7483190447092056</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.7479785978794098</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.7402683347463608</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.7408331334590912</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.7718769609928131</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.7449046671390533</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.7429665327072144</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.7456434071063995</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.7491035163402557</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.7402988523244858</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.7349365949630737</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.7470598071813583</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.7496352940797806</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.7381475418806076</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.7332316637039185</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.7455229759216309</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.7411125898361206</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.7406435310840607</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.7379528433084488</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.7381749749183655</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.7407199740409851</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.748296931385994</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.7399891018867493</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.7315836846828461</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.740802526473999</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.7439146786928177</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.7466159462928772</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.7384538799524307</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.7386448383331299</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.7298989593982697</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.7382270991802216</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.737152099609375</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.7358218431472778</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.7510620355606079</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.7431100457906723</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.7323228269815445</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.7453602999448776</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.7384873032569885</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.9795833333333334</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.7371158748865128</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.7357469350099564</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.7401087880134583</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.7265623509883881</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.742326632142067</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.7360042780637741</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.7281232923269272</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.7422747313976288</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.7339878529310226</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.7298185974359512</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.7309048771858215</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.7455732375383377</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.7258244901895523</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.7328438311815262</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.7334673851728439</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.7260696589946747</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.7366858720779419</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.7449140250682831</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.7388783693313599</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.7270610332489014</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.7293460369110107</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.7380228489637375</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.7333354204893112</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.7344483733177185</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.7406027019023895</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.7257520407438278</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.7284210026264191</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.7283526659011841</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.7381044328212738</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.7323711961507797</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.7232342064380646</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.7292189449071884</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.7299695163965225</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.7267178297042847</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.7233436852693558</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.7341859191656113</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.9795833333333334</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.7323185354471207</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.7283033281564713</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.7268441468477249</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.7335611432790756</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.7237915396690369</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.9795833333333334</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.7281522154808044</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.7344674915075302</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.7250650972127914</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.7252130955457687</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.7234218269586563</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.7345196306705475</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.7301305383443832</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.7337308377027512</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.7199854552745819</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.7217377871274948</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.722894474864006</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.7313736528158188</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.7256366759538651</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.7227817326784134</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.7223401814699173</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.7304361462593079</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.7198590785264969</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.722959578037262</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.9820833333333333</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7208386212587357</v>
       </c>
     </row>
   </sheetData>
